--- a/Hospitais/extraidos/hospitais_setembro.xlsx
+++ b/Hospitais/extraidos/hospitais_setembro.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="65">
   <si>
     <t>código</t>
   </si>
@@ -28,6 +28,12 @@
     <t>porcentagem</t>
   </si>
   <si>
+    <t>4.3</t>
+  </si>
+  <si>
+    <t>1.5</t>
+  </si>
+  <si>
     <t>1.1</t>
   </si>
   <si>
@@ -40,9 +46,6 @@
     <t>1.4</t>
   </si>
   <si>
-    <t>1.5</t>
-  </si>
-  <si>
     <t>2.1</t>
   </si>
   <si>
@@ -73,9 +76,6 @@
     <t>4.2</t>
   </si>
   <si>
-    <t>4.3</t>
-  </si>
-  <si>
     <t>5.1</t>
   </si>
   <si>
@@ -112,9 +112,6 @@
     <t>Indisponibilidade de leito para internação hospitalar (ilh)</t>
   </si>
   <si>
-    <t>Subistituição de paciente</t>
-  </si>
-  <si>
     <t>Pré-operatório incompleto (poi)</t>
   </si>
   <si>
@@ -145,9 +142,6 @@
     <t>Não internação hospitalar (nih)</t>
   </si>
   <si>
-    <t>Inesperada condição do paciente (icp):gravidez, tornozeleira...</t>
-  </si>
-  <si>
     <t>Falta de material cirúrgico (fmc)</t>
   </si>
   <si>
@@ -172,16 +166,16 @@
     <t>SEM INFORMES (SINF)</t>
   </si>
   <si>
+    <t>1.67%</t>
+  </si>
+  <si>
+    <t>2.92%</t>
+  </si>
+  <si>
     <t>3.75%</t>
   </si>
   <si>
-    <t>1.67%</t>
-  </si>
-  <si>
     <t>0.42%</t>
-  </si>
-  <si>
-    <t>2.92%</t>
   </si>
   <si>
     <t>2.08%</t>
@@ -600,13 +594,10 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -617,13 +608,10 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>4</v>
-      </c>
-      <c r="D3" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -634,13 +622,13 @@
         <v>6</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -651,13 +639,13 @@
         <v>7</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -668,13 +656,13 @@
         <v>8</v>
       </c>
       <c r="C6">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -685,13 +673,13 @@
         <v>9</v>
       </c>
       <c r="C7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -702,13 +690,13 @@
         <v>10</v>
       </c>
       <c r="C8">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E8" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -719,13 +707,13 @@
         <v>11</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="D9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E9" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -736,13 +724,13 @@
         <v>12</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E10" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -753,13 +741,13 @@
         <v>13</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E11" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -770,13 +758,13 @@
         <v>14</v>
       </c>
       <c r="C12">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E12" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -787,13 +775,13 @@
         <v>15</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E13" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -807,10 +795,10 @@
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -821,13 +809,13 @@
         <v>17</v>
       </c>
       <c r="C15">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E15" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -838,13 +826,13 @@
         <v>18</v>
       </c>
       <c r="C16">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="D16" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E16" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -855,13 +843,13 @@
         <v>19</v>
       </c>
       <c r="C17">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="D17" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E17" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -875,10 +863,10 @@
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -892,10 +880,10 @@
         <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E19" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -909,10 +897,10 @@
         <v>12</v>
       </c>
       <c r="D20" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -926,10 +914,10 @@
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -943,10 +931,10 @@
         <v>33</v>
       </c>
       <c r="D22" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E22" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -960,10 +948,10 @@
         <v>2</v>
       </c>
       <c r="D23" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E23" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -977,10 +965,10 @@
         <v>25</v>
       </c>
       <c r="D24" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E24" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -994,10 +982,10 @@
         <v>26</v>
       </c>
       <c r="D25" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E25" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/Hospitais/extraidos/hospitais_setembro.xlsx
+++ b/Hospitais/extraidos/hospitais_setembro.xlsx
@@ -28,12 +28,12 @@
     <t>porcentagem</t>
   </si>
   <si>
+    <t>1.5</t>
+  </si>
+  <si>
     <t>4.3</t>
   </si>
   <si>
-    <t>1.5</t>
-  </si>
-  <si>
     <t>1.1</t>
   </si>
   <si>
@@ -166,10 +166,10 @@
     <t>SEM INFORMES (SINF)</t>
   </si>
   <si>
+    <t>2.92%</t>
+  </si>
+  <si>
     <t>1.67%</t>
-  </si>
-  <si>
-    <t>2.92%</t>
   </si>
   <si>
     <t>3.75%</t>
@@ -594,7 +594,7 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E2" t="s">
         <v>50</v>
@@ -608,7 +608,7 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E3" t="s">
         <v>51</v>
@@ -645,7 +645,7 @@
         <v>29</v>
       </c>
       <c r="E5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:5">
